--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2835.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2835.xlsx
@@ -354,7 +354,7 @@
         <v>2.442194998979991</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.359831480407755</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2835.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2835.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.172573476595131</v>
+        <v>1.155946254730225</v>
       </c>
       <c r="B1">
-        <v>2.442194998979991</v>
+        <v>2.338923454284668</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>4.909433364868164</v>
       </c>
       <c r="D1">
-        <v>2.359831480407755</v>
+        <v>2.46947455406189</v>
       </c>
       <c r="E1">
-        <v>1.237271112233704</v>
+        <v>1.241406679153442</v>
       </c>
     </row>
   </sheetData>
